--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartProcessConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartProcessConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84BB25E-78B9-A443-A0A4-068B2604CA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867F6D74-666C-1545-B7E1-6664604FE604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="9840" windowWidth="29140" windowHeight="18160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20860" yWindow="4580" windowWidth="29140" windowHeight="18160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>20001</v>
+        <v>20101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
